--- a/data/supervision_es.xlsx
+++ b/data/supervision_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E467CA-059B-420E-A994-6B0A3751D73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96840B5-92E8-4BFD-BD75-805A2A9AD2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27885" yWindow="3930" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>Maestría en Psicología</t>
   </si>
   <si>
-    <t>Universidad de Valencia, España</t>
-  </si>
-  <si>
     <t>2017 - 2018</t>
   </si>
   <si>
@@ -97,18 +94,6 @@
     <t>Hasbleidy Gamboa Ordoñez (2019 - 2020)</t>
   </si>
   <si>
-    <t>Universidad El Bosque, Colombia</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica Nacional, Colombia</t>
-  </si>
-  <si>
-    <t>University of East London, UK</t>
-  </si>
-  <si>
-    <t>University of Stirling, UK</t>
-  </si>
-  <si>
     <t>Maria Paula Moreno Rodríguez (2019 - 2021)</t>
   </si>
   <si>
@@ -151,18 +136,6 @@
     <t>Juan Felipe Pérez Ariza (2017 - 2019)</t>
   </si>
   <si>
-    <t>Milena Vásquez-Amézquita. Supervisión conjunta con  Alicia Salvador</t>
-  </si>
-  <si>
-    <t>Francisco Javier Flores. Supervisión conjunta con Lisa Chiara Fellin</t>
-  </si>
-  <si>
-    <t>Julia Sanz-Vidania. Supervisión conjunta con S Craig Roberts</t>
-  </si>
-  <si>
-    <t>Adrián Acosta Guerrero. Supervisión conjunta con Milena Vásquez-Amézquita</t>
-  </si>
-  <si>
     <t>Angie Alejandra Lozano Sanjuan (2021 - 2022)</t>
   </si>
   <si>
@@ -173,6 +146,33 @@
   </si>
   <si>
     <t>John Jairo Rubio (2021 - 2022)</t>
+  </si>
+  <si>
+    <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}. Supervisión conjunta con  Alicia Salvador</t>
+  </si>
+  <si>
+    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}, Colombia</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}, Colombia</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, UK</t>
+  </si>
+  <si>
+    <t>\href{https://www.uel.ac.uk/}{University of East London}, UK</t>
+  </si>
+  <si>
+    <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
+  </si>
+  <si>
+    <t>\href{https://www.researchgate.net/profile/Francisco-Flores-14}{Francisco Javier Flores}. Supervisión conjunta con Lisa Chiara Fellin</t>
+  </si>
+  <si>
+    <t>Adrián Acosta Guerrero. Supervisión conjunta con \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
+  </si>
+  <si>
+    <t>Julia Sanz-Vidania. Supervisión conjunta con \href{https://www.scraigroberts.com/}{S Craig Roberts}</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1022,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,223 +1033,376 @@
     <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="137.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/supervision_es.xlsx
+++ b/data/supervision_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96840B5-92E8-4BFD-BD75-805A2A9AD2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13589F48-D678-4E54-99DD-D401F359F6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27885" yWindow="3930" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="1395" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/supervision_es.xlsx
+++ b/data/supervision_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13589F48-D678-4E54-99DD-D401F359F6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C5209-3184-4644-A9B0-93C1FA8F5193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1395" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>what</t>
   </si>
@@ -49,130 +49,148 @@
     <t>Pedagogía Musical</t>
   </si>
   <si>
-    <t>Andrés Castellano Chacón (2017 -2018; supervisión docente, 2019 - actualmente)</t>
-  </si>
-  <si>
     <t>Pregrado</t>
   </si>
   <si>
     <t>Posgrado</t>
   </si>
   <si>
+    <t>2015 - 2018</t>
+  </si>
+  <si>
+    <t>Professional Doctorate in Counselling Psychology</t>
+  </si>
+  <si>
+    <t>2013 - 2014</t>
+  </si>
+  <si>
+    <t>2017 - 2018</t>
+  </si>
+  <si>
+    <t>2017 - 2019</t>
+  </si>
+  <si>
+    <t>Desde 2015</t>
+  </si>
+  <si>
+    <t>2019 - 2020</t>
+  </si>
+  <si>
+    <t>Danny Ferley Gaitan Rodríguez (2019 - 2020)</t>
+  </si>
+  <si>
+    <t>Hasbleidy Gamboa Ordoñez (2019 - 2020)</t>
+  </si>
+  <si>
+    <t>Maria Paula Moreno Rodríguez (2019 - 2021)</t>
+  </si>
+  <si>
+    <t>Andrés Felipe Orozco Serrato (2020 - 2021)</t>
+  </si>
+  <si>
+    <t>Paula Andrea Betancourt Velandia  (2018 - 2019)</t>
+  </si>
+  <si>
+    <t>Ana Sofía Gómez Castelblanco (2018 - 2019)</t>
+  </si>
+  <si>
+    <t>Lina María García Hoyos  (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Angie Liliana Pérez Rodríguez  (2016 - 2018)</t>
+  </si>
+  <si>
+    <t>Lina María Morales Sánchez (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Laura Milena Estupiñan Aldana  (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Vanesa Díaz Güiza  (2016 - 2018)</t>
+  </si>
+  <si>
+    <t>Cindy Paola Moncada Gómez (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Haydn Ricardo Roldán Morales (2015 - 2016)</t>
+  </si>
+  <si>
+    <t>John Jairo Rubio (2021 - 2022)</t>
+  </si>
+  <si>
+    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}, Colombia</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}, Colombia</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, UK</t>
+  </si>
+  <si>
+    <t>\href{https://www.uel.ac.uk/}{University of East London}, UK</t>
+  </si>
+  <si>
+    <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
+  </si>
+  <si>
+    <t>\href{https://www.researchgate.net/profile/Francisco-Flores-14}{Francisco Javier Flores}. Supervisión conjunta con Lisa Chiara Fellin</t>
+  </si>
+  <si>
+    <t>Maria Alejandra Abello Mozo  (2018 - 2018)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Natalia Elízabeth Moreno Buitrago (2017 - 2019)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Juan Felipe Pérez Ariza (2017 - 2019)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Angie Alejandra Lozano Sanjuan (2021 - 2022) - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Daniela Martínez Franco (2021 - 2022) - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Mariana Saavedra Botero (2021 - 2022) - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Maria Daniela Martínez Luna (2020 - 2021)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Juan Sebastián Preciado Ruíz (2020 - 2021)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Andrés Castellanos-Chacón (2017 -2018) - \textbf{\textit{Trabajo de grado meritorio}}. Supervisión docente (2019 - actualmente)</t>
+  </si>
+  <si>
+    <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}. Supervisión conjunta con  Alicia Salvador</t>
+  </si>
+  <si>
+    <t>Julia Sanz-Vidania. Supervisión conjunta con \href{https://www.scraigroberts.com/}{S Craig Roberts}</t>
+  </si>
+  <si>
+    <t>Adrián Acosta Guerrero. Supervisión conjunta con \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
+  </si>
+  <si>
     <t>PhD in Neuroscience</t>
   </si>
   <si>
-    <t>2015 - 2018</t>
-  </si>
-  <si>
-    <t>Professional Doctorate in Counselling Psychology</t>
+    <t>\textbf{\textit{Summa Cum Laude}}</t>
+  </si>
+  <si>
+    <t>Maestría en Psicología</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}</t>
   </si>
   <si>
     <t>Psychological Research Methods (Evolutionary Psychology) MSc</t>
   </si>
   <si>
-    <t>2013 - 2014</t>
-  </si>
-  <si>
-    <t>Maestría en Psicología</t>
-  </si>
-  <si>
-    <t>2017 - 2018</t>
-  </si>
-  <si>
-    <t>2017 - 2019</t>
-  </si>
-  <si>
-    <t>Desde 2015</t>
-  </si>
-  <si>
-    <t>2019 - 2020</t>
-  </si>
-  <si>
-    <t>Danny Ferley Gaitan Rodríguez (2019 - 2020)</t>
-  </si>
-  <si>
-    <t>Hasbleidy Gamboa Ordoñez (2019 - 2020)</t>
-  </si>
-  <si>
-    <t>Maria Paula Moreno Rodríguez (2019 - 2021)</t>
-  </si>
-  <si>
-    <t>Andrés Felipe Orozco Serrato (2020 - 2021)</t>
-  </si>
-  <si>
-    <t>Paula Andrea Betancourt Velandia  (2018 - 2019)</t>
-  </si>
-  <si>
-    <t>Ana Sofía Gómez Castelblanco (2018 - 2019)</t>
-  </si>
-  <si>
-    <t>Lina María García Hoyos  (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Angie Liliana Pérez Rodríguez  (2016 - 2018)</t>
-  </si>
-  <si>
-    <t>Lina María Morales Sánchez (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Laura Milena Estupiñan Aldana  (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Vanesa Díaz Güiza  (2016 - 2018)</t>
-  </si>
-  <si>
-    <t>Cindy Paola Moncada Gómez (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Haydn Ricardo Roldán Morales (2015 - 2016)</t>
-  </si>
-  <si>
-    <t>Maria Alejandra Abello Mozo  (2018 - 2018)</t>
-  </si>
-  <si>
-    <t>Natalia Elízabeth Moreno Buitrago (2017 - 2019)</t>
-  </si>
-  <si>
-    <t>Juan Felipe Pérez Ariza (2017 - 2019)</t>
-  </si>
-  <si>
-    <t>Angie Alejandra Lozano Sanjuan (2021 - 2022)</t>
-  </si>
-  <si>
-    <t>Daniela Martínez Franco (2021 - 2022)</t>
-  </si>
-  <si>
-    <t>Mariana Saavedra Botero (2021 - 2022)</t>
-  </si>
-  <si>
-    <t>John Jairo Rubio (2021 - 2022)</t>
-  </si>
-  <si>
-    <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}. Supervisión conjunta con  Alicia Salvador</t>
-  </si>
-  <si>
-    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}, Colombia</t>
-  </si>
-  <si>
-    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}, Colombia</t>
-  </si>
-  <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, UK</t>
-  </si>
-  <si>
-    <t>\href{https://www.uel.ac.uk/}{University of East London}, UK</t>
-  </si>
-  <si>
-    <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
-  </si>
-  <si>
-    <t>\href{https://www.researchgate.net/profile/Francisco-Flores-14}{Francisco Javier Flores}. Supervisión conjunta con Lisa Chiara Fellin</t>
-  </si>
-  <si>
-    <t>Adrián Acosta Guerrero. Supervisión conjunta con \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
-  </si>
-  <si>
-    <t>Julia Sanz-Vidania. Supervisión conjunta con \href{https://www.scraigroberts.com/}{S Craig Roberts}</t>
+    <t>\hphantom{Pregrado}</t>
+  </si>
+  <si>
+    <t>\hphantom{Posgrado}</t>
   </si>
 </sst>
 </file>
@@ -1022,19 +1040,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="137.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="133.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,96 +1072,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,33 +1164,41 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,16 +1207,24 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,7 +1242,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,7 +1251,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1260,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1269,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,18 +1278,16 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1296,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,7 +1305,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1314,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,16 +1323,18 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,7 +1343,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1352,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,35 +1360,45 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1404,6 +1442,41 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
